--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H2">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5497586339692</v>
+        <v>26.568057</v>
       </c>
       <c r="N2">
-        <v>26.5497586339692</v>
+        <v>53.136114</v>
       </c>
       <c r="O2">
-        <v>0.17912103004376</v>
+        <v>0.1769362593421452</v>
       </c>
       <c r="P2">
-        <v>0.17912103004376</v>
+        <v>0.1285250503302229</v>
       </c>
       <c r="Q2">
-        <v>19.78404170695244</v>
+        <v>3.663823620490001</v>
       </c>
       <c r="R2">
-        <v>19.78404170695244</v>
+        <v>21.98294172294</v>
       </c>
       <c r="S2">
-        <v>0.17912103004376</v>
+        <v>0.02037304786295088</v>
       </c>
       <c r="T2">
-        <v>0.17912103004376</v>
+        <v>0.01479881518746509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H3">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7318231029691</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N3">
-        <v>12.7318231029691</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O3">
-        <v>0.08589672320489282</v>
+        <v>0.09034873381715106</v>
       </c>
       <c r="P3">
-        <v>0.08589672320489282</v>
+        <v>0.09844287093240803</v>
       </c>
       <c r="Q3">
-        <v>9.487352512214686</v>
+        <v>1.870853528108889</v>
       </c>
       <c r="R3">
-        <v>9.487352512214686</v>
+        <v>16.83768175298</v>
       </c>
       <c r="S3">
-        <v>0.08589672320489282</v>
+        <v>0.01040306314408099</v>
       </c>
       <c r="T3">
-        <v>0.08589672320489282</v>
+        <v>0.0113350498576666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H4">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.7244248475104</v>
+        <v>39.790493</v>
       </c>
       <c r="N4">
-        <v>39.7244248475104</v>
+        <v>119.371479</v>
       </c>
       <c r="O4">
-        <v>0.2680054457247708</v>
+        <v>0.2649941991919023</v>
       </c>
       <c r="P4">
-        <v>0.2680054457247708</v>
+        <v>0.2887344254506106</v>
       </c>
       <c r="Q4">
-        <v>29.60138692041847</v>
+        <v>5.487241619676667</v>
       </c>
       <c r="R4">
-        <v>29.60138692041847</v>
+        <v>49.38517457709</v>
       </c>
       <c r="S4">
-        <v>0.2680054457247708</v>
+        <v>0.03051234113128453</v>
       </c>
       <c r="T4">
-        <v>0.2680054457247708</v>
+        <v>0.03324587222120478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H5">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.4708644493903</v>
+        <v>41.751761</v>
       </c>
       <c r="N5">
-        <v>41.4708644493903</v>
+        <v>125.255283</v>
       </c>
       <c r="O5">
-        <v>0.2797880033257916</v>
+        <v>0.2780557273076938</v>
       </c>
       <c r="P5">
-        <v>0.2797880033257916</v>
+        <v>0.3029661060969064</v>
       </c>
       <c r="Q5">
-        <v>30.90277856011716</v>
+        <v>5.757707014436668</v>
       </c>
       <c r="R5">
-        <v>30.90277856011716</v>
+        <v>51.81936312993</v>
       </c>
       <c r="S5">
-        <v>0.2797880033257916</v>
+        <v>0.03201629028481405</v>
       </c>
       <c r="T5">
-        <v>0.2797880033257916</v>
+        <v>0.03488455675118881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H6">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.3659320444503</v>
+        <v>18.009171</v>
       </c>
       <c r="N6">
-        <v>17.3659320444503</v>
+        <v>54.02751300000001</v>
       </c>
       <c r="O6">
-        <v>0.1171612773719156</v>
+        <v>0.1199363337180826</v>
       </c>
       <c r="P6">
-        <v>0.1171612773719156</v>
+        <v>0.1306811564643544</v>
       </c>
       <c r="Q6">
-        <v>12.94054415274143</v>
+        <v>2.483524711470001</v>
       </c>
       <c r="R6">
-        <v>12.94054415274143</v>
+        <v>22.35172240323</v>
       </c>
       <c r="S6">
-        <v>0.1171612773719156</v>
+        <v>0.01380988089400241</v>
       </c>
       <c r="T6">
-        <v>0.1171612773719156</v>
+        <v>0.01504707664405733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H7">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3796509098493</v>
+        <v>10.470196</v>
       </c>
       <c r="N7">
-        <v>10.3796509098493</v>
+        <v>20.940392</v>
       </c>
       <c r="O7">
-        <v>0.07002752032886951</v>
+        <v>0.06972874662302521</v>
       </c>
       <c r="P7">
-        <v>0.07002752032886951</v>
+        <v>0.05065039072549785</v>
       </c>
       <c r="Q7">
-        <v>7.734588074233096</v>
+        <v>1.443874929053333</v>
       </c>
       <c r="R7">
-        <v>7.734588074233096</v>
+        <v>8.66324957432</v>
       </c>
       <c r="S7">
-        <v>0.07002752032886951</v>
+        <v>0.008028807083727531</v>
       </c>
       <c r="T7">
-        <v>0.07002752032886951</v>
+        <v>0.005832059739277745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.179287</v>
+      </c>
+      <c r="I8">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J8">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.568057</v>
+      </c>
+      <c r="N8">
+        <v>53.136114</v>
+      </c>
+      <c r="O8">
+        <v>0.1769362593421452</v>
+      </c>
+      <c r="P8">
+        <v>0.1285250503302229</v>
+      </c>
+      <c r="Q8">
+        <v>28.155826078453</v>
+      </c>
+      <c r="R8">
+        <v>168.934956470718</v>
+      </c>
+      <c r="S8">
+        <v>0.1565632114791944</v>
+      </c>
+      <c r="T8">
+        <v>0.1137262351427578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.179287</v>
+      </c>
+      <c r="I9">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J9">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.56641266666666</v>
+      </c>
+      <c r="N9">
+        <v>40.69923799999999</v>
+      </c>
+      <c r="O9">
+        <v>0.09034873381715106</v>
+      </c>
+      <c r="P9">
+        <v>0.09844287093240803</v>
+      </c>
+      <c r="Q9">
+        <v>14.37717314258955</v>
+      </c>
+      <c r="R9">
+        <v>129.394558283306</v>
+      </c>
+      <c r="S9">
+        <v>0.07994567067307007</v>
+      </c>
+      <c r="T9">
+        <v>0.08710782107474142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.179287</v>
+      </c>
+      <c r="I10">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J10">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>39.790493</v>
+      </c>
+      <c r="N10">
+        <v>119.371479</v>
+      </c>
+      <c r="O10">
+        <v>0.2649941991919023</v>
+      </c>
+      <c r="P10">
+        <v>0.2887344254506106</v>
+      </c>
+      <c r="Q10">
+        <v>42.16846570616366</v>
+      </c>
+      <c r="R10">
+        <v>379.516191355473</v>
+      </c>
+      <c r="S10">
+        <v>0.2344818580606177</v>
+      </c>
+      <c r="T10">
+        <v>0.2554885532294058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.179287</v>
+      </c>
+      <c r="I11">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J11">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.751761</v>
+      </c>
+      <c r="N11">
+        <v>125.255283</v>
+      </c>
+      <c r="O11">
+        <v>0.2780557273076938</v>
+      </c>
+      <c r="P11">
+        <v>0.3029661060969064</v>
+      </c>
+      <c r="Q11">
+        <v>44.24694365813566</v>
+      </c>
+      <c r="R11">
+        <v>398.222492923221</v>
+      </c>
+      <c r="S11">
+        <v>0.2460394370228798</v>
+      </c>
+      <c r="T11">
+        <v>0.2680815493457175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.179287</v>
+      </c>
+      <c r="I12">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J12">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.009171</v>
+      </c>
+      <c r="N12">
+        <v>54.02751300000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1199363337180826</v>
+      </c>
+      <c r="P12">
+        <v>0.1306811564643544</v>
+      </c>
+      <c r="Q12">
+        <v>19.085441080359</v>
+      </c>
+      <c r="R12">
+        <v>171.768969723231</v>
+      </c>
+      <c r="S12">
+        <v>0.1061264528240802</v>
+      </c>
+      <c r="T12">
+        <v>0.1156340798202971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.179287</v>
+      </c>
+      <c r="I13">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J13">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.470196</v>
+      </c>
+      <c r="N13">
+        <v>20.940392</v>
+      </c>
+      <c r="O13">
+        <v>0.06972874662302521</v>
+      </c>
+      <c r="P13">
+        <v>0.05065039072549785</v>
+      </c>
+      <c r="Q13">
+        <v>11.09591934341733</v>
+      </c>
+      <c r="R13">
+        <v>66.575516060504</v>
+      </c>
+      <c r="S13">
+        <v>0.06169993953929769</v>
+      </c>
+      <c r="T13">
+        <v>0.04481833098622011</v>
       </c>
     </row>
   </sheetData>
